--- a/biology/Médecine/Medical_Care_Continuity/Medical_Care_Continuity.xlsx
+++ b/biology/Médecine/Medical_Care_Continuity/Medical_Care_Continuity.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Medical Care Continuity (MCC) est un consortium créé en 2005 et en projet jusqu’en mai 2007 lancé par Axa Assistance, Eurogroup Alliance et France Télécom pour l’expérimentation dans quatre pays européens d’un nouveau service de maintien médicalisé à domicile pour les malades du cancer.
 Cette initiative est financée à 50 % par l’Europe, bénéficie du soutien de l’Union européenne à travers le projet eTEN. Il permet au patient d’être suivi à son domicile grâce à une station réunissant une caméra télé-pilotable et un écran qui établissent le lien avec son centre d’assistance ou la structure hospitalière (HAD). Le patient peut activer ce système à l’aide d’une télécommande à bouton unique. Il peut alors appeler ou accepter une communication et entrer ainsi en contact vocal puis visuel.
